--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntrk3-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntrk3-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Ntrk3</t>
+  </si>
+  <si>
+    <t>Ptprs</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Ntrk3</t>
-  </si>
-  <si>
-    <t>Ptprs</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.020301</v>
       </c>
       <c r="I2">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="J2">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.908591666666666</v>
+        <v>4.260872666666667</v>
       </c>
       <c r="N2">
-        <v>5.725775</v>
+        <v>12.782618</v>
       </c>
       <c r="O2">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="P2">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
       <c r="Q2">
-        <v>0.01291543980833333</v>
+        <v>0.02883332533533333</v>
       </c>
       <c r="R2">
-        <v>0.116238958275</v>
+        <v>0.259499928018</v>
       </c>
       <c r="S2">
-        <v>0.0002888163705790033</v>
+        <v>0.01979333509788303</v>
       </c>
       <c r="T2">
-        <v>0.0002888163705790034</v>
+        <v>0.01979333509788302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.020301</v>
       </c>
       <c r="I3">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="J3">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>61.574391</v>
       </c>
       <c r="O3">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="P3">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
       <c r="Q3">
         <v>0.138891301299</v>
@@ -641,10 +641,10 @@
         <v>1.250021711691</v>
       </c>
       <c r="S3">
-        <v>0.003105901319774607</v>
+        <v>0.09534530050972914</v>
       </c>
       <c r="T3">
-        <v>0.003105901319774608</v>
+        <v>0.0953453005097291</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>0.020301</v>
       </c>
       <c r="I4">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="J4">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.719214000000001</v>
+        <v>8.931090666666666</v>
       </c>
       <c r="N4">
-        <v>26.157642</v>
+        <v>26.793272</v>
       </c>
       <c r="O4">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="P4">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
       <c r="Q4">
-        <v>0.059002921138</v>
+        <v>0.06043669054133333</v>
       </c>
       <c r="R4">
-        <v>0.5310262902420001</v>
+        <v>0.543930214872</v>
       </c>
       <c r="S4">
-        <v>0.001319429286925334</v>
+        <v>0.04148823121090895</v>
       </c>
       <c r="T4">
-        <v>0.001319429286925334</v>
+        <v>0.04148823121090894</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>0.020301</v>
       </c>
       <c r="I5">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="J5">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.954868</v>
+        <v>6.457974333333333</v>
       </c>
       <c r="N5">
-        <v>62.864604</v>
+        <v>19.373923</v>
       </c>
       <c r="O5">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="P5">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
       <c r="Q5">
-        <v>0.141801591756</v>
+        <v>0.04370111231366666</v>
       </c>
       <c r="R5">
-        <v>1.276214325804</v>
+        <v>0.393310010823</v>
       </c>
       <c r="S5">
-        <v>0.003170981529167021</v>
+        <v>0.02999968786516059</v>
       </c>
       <c r="T5">
-        <v>0.003170981529167021</v>
+        <v>0.02999968786516058</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -797,10 +797,10 @@
         <v>0.020301</v>
       </c>
       <c r="I6">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="J6">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.641831</v>
+        <v>1.948535</v>
       </c>
       <c r="N6">
-        <v>4.925493</v>
+        <v>5.845605</v>
       </c>
       <c r="O6">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="P6">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
       <c r="Q6">
-        <v>0.011110270377</v>
+        <v>0.013185736345</v>
       </c>
       <c r="R6">
-        <v>0.099992433393</v>
+        <v>0.118671627105</v>
       </c>
       <c r="S6">
-        <v>0.000248448989276087</v>
+        <v>0.009051668337023019</v>
       </c>
       <c r="T6">
-        <v>0.0002484489892760871</v>
+        <v>0.009051668337023018</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -859,10 +859,10 @@
         <v>0.020301</v>
       </c>
       <c r="I7">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="J7">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.88286</v>
+        <v>4.881814666666666</v>
       </c>
       <c r="N7">
-        <v>35.64858</v>
+        <v>14.645444</v>
       </c>
       <c r="O7">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="P7">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="Q7">
-        <v>0.08041131361999999</v>
+        <v>0.03303523984933333</v>
       </c>
       <c r="R7">
-        <v>0.72370182258</v>
+        <v>0.2973171586439999</v>
       </c>
       <c r="S7">
-        <v>0.001798165923721286</v>
+        <v>0.02267784117066476</v>
       </c>
       <c r="T7">
-        <v>0.001798165923721287</v>
+        <v>0.02267784117066475</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1128566666666667</v>
+        <v>0.023199</v>
       </c>
       <c r="H8">
-        <v>0.33857</v>
+        <v>0.06959699999999999</v>
       </c>
       <c r="I8">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999526</v>
       </c>
       <c r="J8">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999528</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.908591666666666</v>
+        <v>4.260872666666667</v>
       </c>
       <c r="N8">
-        <v>5.725775</v>
+        <v>12.782618</v>
       </c>
       <c r="O8">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="P8">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
       <c r="Q8">
-        <v>0.2153972935277778</v>
+        <v>0.09884798499399999</v>
       </c>
       <c r="R8">
-        <v>1.93857564175</v>
+        <v>0.889631864946</v>
       </c>
       <c r="S8">
-        <v>0.004816736051767557</v>
+        <v>0.06785659537990074</v>
       </c>
       <c r="T8">
-        <v>0.004816736051767558</v>
+        <v>0.06785659537990074</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1128566666666667</v>
+        <v>0.023199</v>
       </c>
       <c r="H9">
-        <v>0.33857</v>
+        <v>0.06959699999999999</v>
       </c>
       <c r="I9">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999526</v>
       </c>
       <c r="J9">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999528</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>61.574391</v>
       </c>
       <c r="O9">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="P9">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
       <c r="Q9">
-        <v>2.31636017343</v>
+        <v>0.476154765603</v>
       </c>
       <c r="R9">
-        <v>20.84724156087</v>
+        <v>4.285392890427</v>
       </c>
       <c r="S9">
-        <v>0.05179868035249932</v>
+        <v>0.3268679808667365</v>
       </c>
       <c r="T9">
-        <v>0.05179868035249934</v>
+        <v>0.3268679808667365</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1128566666666667</v>
+        <v>0.023199</v>
       </c>
       <c r="H10">
-        <v>0.33857</v>
+        <v>0.06959699999999999</v>
       </c>
       <c r="I10">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999526</v>
       </c>
       <c r="J10">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999528</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.719214000000001</v>
+        <v>8.931090666666666</v>
       </c>
       <c r="N10">
-        <v>26.157642</v>
+        <v>26.793272</v>
       </c>
       <c r="O10">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="P10">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
       <c r="Q10">
-        <v>0.9840214279933334</v>
+        <v>0.207192372376</v>
       </c>
       <c r="R10">
-        <v>8.856192851940001</v>
+        <v>1.864731351384</v>
       </c>
       <c r="S10">
-        <v>0.02200478664471259</v>
+        <v>0.1422322263723772</v>
       </c>
       <c r="T10">
-        <v>0.0220047866447126</v>
+        <v>0.1422322263723772</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1128566666666667</v>
+        <v>0.023199</v>
       </c>
       <c r="H11">
-        <v>0.33857</v>
+        <v>0.06959699999999999</v>
       </c>
       <c r="I11">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999526</v>
       </c>
       <c r="J11">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999528</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.954868</v>
+        <v>6.457974333333333</v>
       </c>
       <c r="N11">
-        <v>62.864604</v>
+        <v>19.373923</v>
       </c>
       <c r="O11">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="P11">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
       <c r="Q11">
-        <v>2.36489655292</v>
+        <v>0.149818546559</v>
       </c>
       <c r="R11">
-        <v>21.28406897628</v>
+        <v>1.348366919031</v>
       </c>
       <c r="S11">
-        <v>0.05288405577705917</v>
+        <v>0.1028465728955018</v>
       </c>
       <c r="T11">
-        <v>0.05288405577705918</v>
+        <v>0.1028465728955017</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1128566666666667</v>
+        <v>0.023199</v>
       </c>
       <c r="H12">
-        <v>0.33857</v>
+        <v>0.06959699999999999</v>
       </c>
       <c r="I12">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999526</v>
       </c>
       <c r="J12">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999528</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.641831</v>
+        <v>1.948535</v>
       </c>
       <c r="N12">
-        <v>4.925493</v>
+        <v>5.845605</v>
       </c>
       <c r="O12">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="P12">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
       <c r="Q12">
-        <v>0.18529157389</v>
+        <v>0.04520406346499999</v>
       </c>
       <c r="R12">
-        <v>1.66762416501</v>
+        <v>0.4068365711849999</v>
       </c>
       <c r="S12">
-        <v>0.004143508905926053</v>
+        <v>0.0310314251146146</v>
       </c>
       <c r="T12">
-        <v>0.004143508905926053</v>
+        <v>0.0310314251146146</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1128566666666667</v>
+        <v>0.023199</v>
       </c>
       <c r="H13">
-        <v>0.33857</v>
+        <v>0.06959699999999999</v>
       </c>
       <c r="I13">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999526</v>
       </c>
       <c r="J13">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999528</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.88286</v>
+        <v>4.881814666666666</v>
       </c>
       <c r="N13">
-        <v>35.64858</v>
+        <v>14.645444</v>
       </c>
       <c r="O13">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="P13">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="Q13">
-        <v>1.341059970066667</v>
+        <v>0.113253218452</v>
       </c>
       <c r="R13">
-        <v>12.0695397306</v>
+        <v>1.019278966068</v>
       </c>
       <c r="S13">
-        <v>0.02998891861456657</v>
+        <v>0.07774541707082187</v>
       </c>
       <c r="T13">
-        <v>0.02998891861456658</v>
+        <v>0.07774541707082186</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5607023333333334</v>
+        <v>0.001024666666666667</v>
       </c>
       <c r="H14">
-        <v>1.682107</v>
+        <v>0.003074</v>
       </c>
       <c r="I14">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="J14">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.908591666666666</v>
+        <v>4.260872666666667</v>
       </c>
       <c r="N14">
-        <v>5.725775</v>
+        <v>12.782618</v>
       </c>
       <c r="O14">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="P14">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
       <c r="Q14">
-        <v>1.070151800880556</v>
+        <v>0.004365974192444444</v>
       </c>
       <c r="R14">
-        <v>9.631366207925002</v>
+        <v>0.039293767732</v>
       </c>
       <c r="S14">
-        <v>0.02393084274989092</v>
+        <v>0.002997128815865841</v>
       </c>
       <c r="T14">
-        <v>0.02393084274989093</v>
+        <v>0.00299712881586584</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5607023333333334</v>
+        <v>0.001024666666666667</v>
       </c>
       <c r="H15">
-        <v>1.682107</v>
+        <v>0.003074</v>
       </c>
       <c r="I15">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="J15">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>61.574391</v>
       </c>
       <c r="O15">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="P15">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
       <c r="Q15">
-        <v>11.508301569093</v>
+        <v>0.021031075326</v>
       </c>
       <c r="R15">
-        <v>103.574714121837</v>
+        <v>0.189279677934</v>
       </c>
       <c r="S15">
-        <v>0.2573498030295112</v>
+        <v>0.01443729145199288</v>
       </c>
       <c r="T15">
-        <v>0.2573498030295112</v>
+        <v>0.01443729145199287</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5607023333333334</v>
+        <v>0.001024666666666667</v>
       </c>
       <c r="H16">
-        <v>1.682107</v>
+        <v>0.003074</v>
       </c>
       <c r="I16">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="J16">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.719214000000001</v>
+        <v>8.931090666666666</v>
       </c>
       <c r="N16">
-        <v>26.157642</v>
+        <v>26.793272</v>
       </c>
       <c r="O16">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="P16">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
       <c r="Q16">
-        <v>4.888883634632668</v>
+        <v>0.009151390903111109</v>
       </c>
       <c r="R16">
-        <v>43.99995271169401</v>
+        <v>0.082362518128</v>
       </c>
       <c r="S16">
-        <v>0.1093257100409888</v>
+        <v>0.006282194115675785</v>
       </c>
       <c r="T16">
-        <v>0.1093257100409888</v>
+        <v>0.006282194115675784</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.5607023333333334</v>
+        <v>0.001024666666666667</v>
       </c>
       <c r="H17">
-        <v>1.682107</v>
+        <v>0.003074</v>
       </c>
       <c r="I17">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="J17">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.954868</v>
+        <v>6.457974333333333</v>
       </c>
       <c r="N17">
-        <v>62.864604</v>
+        <v>19.373923</v>
       </c>
       <c r="O17">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="P17">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
       <c r="Q17">
-        <v>11.749443382292</v>
+        <v>0.006617271033555555</v>
       </c>
       <c r="R17">
-        <v>105.744990440628</v>
+        <v>0.059555439302</v>
       </c>
       <c r="S17">
-        <v>0.2627422406326068</v>
+        <v>0.004542586104009834</v>
       </c>
       <c r="T17">
-        <v>0.2627422406326068</v>
+        <v>0.004542586104009832</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.5607023333333334</v>
+        <v>0.001024666666666667</v>
       </c>
       <c r="H18">
-        <v>1.682107</v>
+        <v>0.003074</v>
       </c>
       <c r="I18">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="J18">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.641831</v>
+        <v>1.948535</v>
       </c>
       <c r="N18">
-        <v>4.925493</v>
+        <v>5.845605</v>
       </c>
       <c r="O18">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="P18">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
       <c r="Q18">
-        <v>0.9205784726390002</v>
+        <v>0.001996598863333333</v>
       </c>
       <c r="R18">
-        <v>8.285206253751001</v>
+        <v>0.01796938977</v>
       </c>
       <c r="S18">
-        <v>0.02058606886381119</v>
+        <v>0.001370613687404993</v>
       </c>
       <c r="T18">
-        <v>0.0205860688638112</v>
+        <v>0.001370613687404993</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.5607023333333334</v>
+        <v>0.001024666666666667</v>
       </c>
       <c r="H19">
-        <v>1.682107</v>
+        <v>0.003074</v>
       </c>
       <c r="I19">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="J19">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.88286</v>
+        <v>4.881814666666666</v>
       </c>
       <c r="N19">
-        <v>35.64858</v>
+        <v>14.645444</v>
       </c>
       <c r="O19">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="P19">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="Q19">
-        <v>6.662747328673335</v>
+        <v>0.005002232761777777</v>
       </c>
       <c r="R19">
-        <v>59.96472595806001</v>
+        <v>0.04502009485599999</v>
       </c>
       <c r="S19">
-        <v>0.1489930292819586</v>
+        <v>0.003433903933728558</v>
       </c>
       <c r="T19">
-        <v>0.1489930292819587</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.001024666666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.003074</v>
-      </c>
-      <c r="I20">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="J20">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.908591666666666</v>
-      </c>
-      <c r="N20">
-        <v>5.725775</v>
-      </c>
-      <c r="O20">
-        <v>0.02908012806830959</v>
-      </c>
-      <c r="P20">
-        <v>0.0290801280683096</v>
-      </c>
-      <c r="Q20">
-        <v>0.001955670261111111</v>
-      </c>
-      <c r="R20">
-        <v>0.01760103235</v>
-      </c>
-      <c r="S20">
-        <v>4.373289607210759E-05</v>
-      </c>
-      <c r="T20">
-        <v>4.373289607210761E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.001024666666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.003074</v>
-      </c>
-      <c r="I21">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="J21">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>20.524797</v>
-      </c>
-      <c r="N21">
-        <v>61.574391</v>
-      </c>
-      <c r="O21">
-        <v>0.3127246837341967</v>
-      </c>
-      <c r="P21">
-        <v>0.3127246837341967</v>
-      </c>
-      <c r="Q21">
-        <v>0.021031075326</v>
-      </c>
-      <c r="R21">
-        <v>0.189279677934</v>
-      </c>
-      <c r="S21">
-        <v>0.000470299032411563</v>
-      </c>
-      <c r="T21">
-        <v>0.0004702990324115632</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.001024666666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.003074</v>
-      </c>
-      <c r="I22">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="J22">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>8.719214000000001</v>
-      </c>
-      <c r="N22">
-        <v>26.157642</v>
-      </c>
-      <c r="O22">
-        <v>0.132849715422802</v>
-      </c>
-      <c r="P22">
-        <v>0.132849715422802</v>
-      </c>
-      <c r="Q22">
-        <v>0.008934287945333333</v>
-      </c>
-      <c r="R22">
-        <v>0.080408591508</v>
-      </c>
-      <c r="S22">
-        <v>0.0001997894501752858</v>
-      </c>
-      <c r="T22">
-        <v>0.0001997894501752858</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.001024666666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.003074</v>
-      </c>
-      <c r="I23">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="J23">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>20.954868</v>
-      </c>
-      <c r="N23">
-        <v>62.864604</v>
-      </c>
-      <c r="O23">
-        <v>0.3192774314889369</v>
-      </c>
-      <c r="P23">
-        <v>0.3192774314889369</v>
-      </c>
-      <c r="Q23">
-        <v>0.021471754744</v>
-      </c>
-      <c r="R23">
-        <v>0.193245792696</v>
-      </c>
-      <c r="S23">
-        <v>0.0004801535501039072</v>
-      </c>
-      <c r="T23">
-        <v>0.0004801535501039073</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.001024666666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.003074</v>
-      </c>
-      <c r="I24">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="J24">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1.641831</v>
-      </c>
-      <c r="N24">
-        <v>4.925493</v>
-      </c>
-      <c r="O24">
-        <v>0.02501564718130951</v>
-      </c>
-      <c r="P24">
-        <v>0.02501564718130951</v>
-      </c>
-      <c r="Q24">
-        <v>0.001682329498</v>
-      </c>
-      <c r="R24">
-        <v>0.015140965482</v>
-      </c>
-      <c r="S24">
-        <v>3.76204222961771E-05</v>
-      </c>
-      <c r="T24">
-        <v>3.762042229617711E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.001024666666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.003074</v>
-      </c>
-      <c r="I25">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="J25">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>11.88286</v>
-      </c>
-      <c r="N25">
-        <v>35.64858</v>
-      </c>
-      <c r="O25">
-        <v>0.1810523941044453</v>
-      </c>
-      <c r="P25">
-        <v>0.1810523941044453</v>
-      </c>
-      <c r="Q25">
-        <v>0.01217597054666667</v>
-      </c>
-      <c r="R25">
-        <v>0.10958373492</v>
-      </c>
-      <c r="S25">
-        <v>0.0002722802841987702</v>
-      </c>
-      <c r="T25">
-        <v>0.0002722802841987703</v>
+        <v>0.003433903933728557</v>
       </c>
     </row>
   </sheetData>
